--- a/X-Project tools/Excel/keytool and openssl Cheatsheet.xlsx
+++ b/X-Project tools/Excel/keytool and openssl Cheatsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7230"/>
@@ -11,7 +11,7 @@
     <sheet name="keytool cheatsheet" sheetId="6" r:id="rId2"/>
     <sheet name="Help" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +470,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -486,18 +494,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Code" xfId="1"/>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,9 +593,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,6 +628,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,17 +804,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="9.140625" style="21" bestFit="1" customWidth="1"/>
@@ -827,43 +829,43 @@
     <col min="36" max="36" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
       <c r="AA1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="15" t="s">
@@ -873,32 +875,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:35">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
       <c r="AA2" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v/>
@@ -912,35 +914,35 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="2:35" ht="30" customHeight="1">
-      <c r="B3" s="29" t="str">
+    <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="str">
         <f>"openssl pkcs12 -export -out "&amp;AE3&amp;" -in "&amp;AC3</f>
         <v>openssl pkcs12 -export -out Symantec.p12 -in Symantec.pem</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
       <c r="AA3" s="19" t="str">
         <f t="shared" ref="AA3:AA44" ca="1" si="0">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
         <v>openssl pkcs12 -export -out Symantec.p12 -in Symantec.pem</v>
@@ -964,35 +966,35 @@
       </c>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="4" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="23" t="str">
         <f>"openssl pkcs12 -export -out "&amp;AG4&amp;" -in "&amp;AC4&amp;" -inkey "&amp;AE4</f>
         <v>openssl pkcs12 -export -out crmexp.p12 -in crmexp.cert.pem -inkey crmexp.key.pem</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
       <c r="AA4" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A4,0,MATCH("",B4:Z4,-1)),"")</f>
         <v>openssl pkcs12 -export -out crmexp.p12 -in crmexp.cert.pem -inkey crmexp.key.pem</v>
@@ -1020,35 +1022,35 @@
       </c>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="5" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="23" t="str">
         <f>"openssl pkcs12 -in "&amp;AC5&amp;" -nocerts -out "&amp;AE5&amp;" -nodes"</f>
         <v>openssl pkcs12 -in crmexp.pfx -nocerts -out crmexp.key.pem -nodes</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
       <c r="AA5" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl pkcs12 -in crmexp.pfx -nocerts -out crmexp.key.pem -nodes</v>
@@ -1072,35 +1074,35 @@
       </c>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="6" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="23" t="str">
         <f>"openssl pkcs12 -in "&amp;AC6&amp;" -nokeys -out "&amp;AE6</f>
         <v>openssl pkcs12 -in crmexp.pfx -nokeys -out crmexp.cert.pem</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A6,0,MATCH("",B6:Z6,-1)),"")</f>
         <v>openssl pkcs12 -in crmexp.pfx -nokeys -out crmexp.cert.pem</v>
@@ -1124,35 +1126,35 @@
       </c>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="2:35" ht="17.25" customHeight="1">
-      <c r="B7" s="26" t="str">
+    <row r="7" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="str">
         <f>"openssl x509 -in "&amp;AC7&amp;" -text"</f>
         <v>openssl x509 -in Symantec.pem -text</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
       <c r="AA7" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl x509 -in Symantec.pem -text</v>
@@ -1172,35 +1174,35 @@
       </c>
       <c r="AI7" s="6"/>
     </row>
-    <row r="8" spans="2:35" ht="17.25" customHeight="1">
-      <c r="B8" s="26" t="str">
+    <row r="8" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="str">
         <f>"openssl x509 -inform der -in "&amp;AC8&amp;" -text"</f>
         <v>openssl x509 -inform der -in CA.der.crt -text</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
       <c r="AA8" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A8,0,MATCH("",B8:Z8,-1)),"")</f>
         <v>openssl x509 -inform der -in CA.der.crt -text</v>
@@ -1220,35 +1222,35 @@
       </c>
       <c r="AI8" s="6"/>
     </row>
-    <row r="9" spans="2:35" ht="15" customHeight="1">
-      <c r="B9" s="26" t="str">
+    <row r="9" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="str">
         <f>"openssl pkcs12 -in "&amp;AC9&amp;" -info"</f>
         <v>openssl pkcs12 -in crmexp.pfx -info</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30"/>
       <c r="AA9" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl pkcs12 -in crmexp.pfx -info</v>
@@ -1268,34 +1270,34 @@
       </c>
       <c r="AI9" s="6"/>
     </row>
-    <row r="10" spans="2:35" ht="30">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
       <c r="AA10" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl pkcs7</v>
@@ -1311,35 +1313,35 @@
       </c>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="11" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="23" t="str">
         <f>"openssl pkcs7 -text -noout -print_certs -in "&amp;AC11</f>
         <v>openssl pkcs7 -text -noout -print_certs -in Symantec2root.p7b</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
       <c r="AA11" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl pkcs7 -text -noout -print_certs -in Symantec2root.p7b</v>
@@ -1359,35 +1361,35 @@
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="12" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="23" t="str">
         <f>"openssl pkcs7 -inform der -text -noout -print_certs -in "&amp;AC12</f>
         <v>openssl pkcs7 -inform der -text -noout -print_certs -in Symantec2root.p7b</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" s="19" t="str">
         <f t="shared" ref="AA12" ca="1" si="1">IFERROR(OFFSET(A12,0,MATCH("",B12:Z12,-1)),"")</f>
         <v>openssl pkcs7 -inform der -text -noout -print_certs -in Symantec2root.p7b</v>
@@ -1407,32 +1409,32 @@
       </c>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="2:35" outlineLevel="1">
+    <row r="13" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
       <c r="AA13" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1446,34 +1448,34 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="2:35">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
       <c r="AA14" s="19"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -1486,35 +1488,35 @@
       </c>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="2:35" ht="30" customHeight="1" outlineLevel="1">
+    <row r="15" spans="2:35" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="26" t="str">
         <f>$B$14&amp;" -in "&amp;AC15&amp;" -out "&amp;AE15</f>
         <v>openssl rsa -in crmexp.key.pem -out clear.key</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
       <c r="AA15" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A15,0,MATCH("",B15:Z15,-1)),"")</f>
         <v>openssl rsa -in crmexp.key.pem -out clear.key</v>
@@ -1538,32 +1540,32 @@
       </c>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="2:35" outlineLevel="1">
+    <row r="16" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
       <c r="AA16" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A16,0,MATCH("",B16:Z16,-1)),"")</f>
         <v/>
@@ -1577,35 +1579,35 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="2:35" ht="16.5" customHeight="1" collapsed="1">
-      <c r="B17" s="29" t="str">
+    <row r="17" spans="2:35" ht="16.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="str">
         <f>"openssl rsa -in "&amp;AC17&amp;" -text -noout"</f>
         <v>openssl rsa -in private-key-clear.key -text -noout</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
       <c r="AA17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl rsa -in private-key-clear.key -text -noout</v>
@@ -1625,35 +1627,35 @@
       </c>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="2:35" ht="31.5" customHeight="1" collapsed="1">
-      <c r="B18" s="29" t="str">
+    <row r="18" spans="2:35" ht="31.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="str">
         <f>"openssl rsa -in "&amp;AC18&amp;" -text -noout -modulus"</f>
         <v>openssl rsa -in private-key-clear.key -text -noout -modulus</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A18,0,MATCH("",B18:Z18,-1)),"")</f>
         <v>openssl rsa -in private-key-clear.key -text -noout -modulus</v>
@@ -1673,35 +1675,35 @@
       </c>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="2:35" ht="16.5" customHeight="1" collapsed="1">
-      <c r="B19" s="29" t="str">
+    <row r="19" spans="2:35" ht="16.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="str">
         <f>"openssl x509 -in "&amp;AC19&amp;" -text -noout"</f>
         <v>openssl x509 -in MX1CR03BSAB_cert.pem -text -noout</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl x509 -in MX1CR03BSAB_cert.pem -text -noout</v>
@@ -1721,35 +1723,35 @@
       </c>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="2:35" ht="15" customHeight="1" collapsed="1">
-      <c r="B20" s="29" t="str">
+    <row r="20" spans="2:35" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="str">
         <f>"openssl x509 -in "&amp;AC20&amp;" -text -noout -modulus"</f>
         <v>openssl x509 -in MX1CR03BSAB_cert.pem -text -noout -modulus</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
       <c r="AA20" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>openssl x509 -in MX1CR03BSAB_cert.pem -text -noout -modulus</v>
@@ -1769,32 +1771,32 @@
       </c>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="2:35">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="28"/>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
       <c r="AA21" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1808,34 +1810,34 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="6"/>
     </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
       <c r="AA22" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SET RANDFILE=%CD%\.rnd</v>
@@ -1851,32 +1853,32 @@
       </c>
       <c r="AI22" s="6"/>
     </row>
-    <row r="23" spans="2:35">
-      <c r="B23" s="29"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="24"/>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1890,32 +1892,32 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="2:35" outlineLevel="1">
+    <row r="24" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
       <c r="AA24" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1929,32 +1931,32 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="2:35" outlineLevel="1">
+    <row r="25" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
       <c r="AA25" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1968,32 +1970,32 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="2:35" outlineLevel="2">
+    <row r="26" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
       <c r="AA26" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2007,32 +2009,32 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="2:35" outlineLevel="2">
+    <row r="27" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
       <c r="AA27" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2046,32 +2048,32 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="2:35" outlineLevel="3">
+    <row r="28" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
       <c r="AA28" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2085,32 +2087,32 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="2:35" outlineLevel="3">
+    <row r="29" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="24"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="27"/>
       <c r="AA29" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2124,32 +2126,32 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="2:35" outlineLevel="4">
+    <row r="30" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="24"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
       <c r="AA30" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2163,32 +2165,32 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="2:35" outlineLevel="4">
+    <row r="31" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="24"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
       <c r="AA31" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2202,32 +2204,32 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="2:35" outlineLevel="5">
+    <row r="32" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="24"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="27"/>
       <c r="AA32" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2241,32 +2243,32 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="2:35" outlineLevel="5">
+    <row r="33" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="27"/>
       <c r="AA33" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2280,32 +2282,32 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="2:35" outlineLevel="6">
+    <row r="34" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="24"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="27"/>
       <c r="AA34" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2319,32 +2321,32 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="2:35" outlineLevel="6">
+    <row r="35" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="24"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="27"/>
       <c r="AA35" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2358,7 +2360,7 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="2:35" outlineLevel="7">
+    <row r="36" spans="2:35" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2366,24 +2368,24 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="24"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="27"/>
       <c r="AA36" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2397,7 +2399,7 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="2:35" outlineLevel="7">
+    <row r="37" spans="2:35" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2405,24 +2407,24 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="24"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="27"/>
       <c r="AA37" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2436,32 +2438,32 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="2:35" outlineLevel="6">
+    <row r="38" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="24"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="27"/>
       <c r="AA38" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2475,32 +2477,32 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="2:35" outlineLevel="5">
+    <row r="39" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="27"/>
       <c r="AA39" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2514,32 +2516,32 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
     </row>
-    <row r="40" spans="2:35" outlineLevel="4">
+    <row r="40" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="24"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="27"/>
       <c r="AA40" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2553,32 +2555,32 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
     </row>
-    <row r="41" spans="2:35" outlineLevel="3">
+    <row r="41" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="24"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="27"/>
       <c r="AA41" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2592,32 +2594,32 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
     </row>
-    <row r="42" spans="2:35" outlineLevel="3">
+    <row r="42" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="24"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
       <c r="AA42" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2631,32 +2633,32 @@
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
     </row>
-    <row r="43" spans="2:35" outlineLevel="2">
+    <row r="43" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="27"/>
       <c r="AA43" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2670,32 +2672,32 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
     </row>
-    <row r="44" spans="2:35">
-      <c r="B44" s="29"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="24"/>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="27"/>
       <c r="AA44" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2711,19 +2713,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C4:Z4"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="C15:Z15"/>
-    <mergeCell ref="C16:Z16"/>
-    <mergeCell ref="E28:Z28"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C24:Z24"/>
-    <mergeCell ref="C25:Z25"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="B18:Z18"/>
-    <mergeCell ref="B8:Z8"/>
-    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="H35:Z35"/>
+    <mergeCell ref="I36:Z36"/>
+    <mergeCell ref="F31:Z31"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B21:Z21"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="C5:Z5"/>
+    <mergeCell ref="B10:Z10"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C13:Z13"/>
+    <mergeCell ref="E29:Z29"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="B19:Z19"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="H34:Z34"/>
     <mergeCell ref="I37:Z37"/>
     <mergeCell ref="B44:Z44"/>
     <mergeCell ref="B20:Z20"/>
@@ -2740,22 +2745,19 @@
     <mergeCell ref="G32:Z32"/>
     <mergeCell ref="G33:Z33"/>
     <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="H35:Z35"/>
-    <mergeCell ref="I36:Z36"/>
-    <mergeCell ref="F31:Z31"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="B21:Z21"/>
-    <mergeCell ref="B22:Z22"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="C5:Z5"/>
-    <mergeCell ref="B10:Z10"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C13:Z13"/>
-    <mergeCell ref="E29:Z29"/>
-    <mergeCell ref="F30:Z30"/>
-    <mergeCell ref="B19:Z19"/>
-    <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="H34:Z34"/>
+    <mergeCell ref="C4:Z4"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="C15:Z15"/>
+    <mergeCell ref="C16:Z16"/>
+    <mergeCell ref="E28:Z28"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C24:Z24"/>
+    <mergeCell ref="C25:Z25"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="B18:Z18"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="C12:Z12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2763,17 +2765,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="15" style="21" customWidth="1"/>
@@ -2788,43 +2790,43 @@
     <col min="36" max="36" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
       <c r="AA1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="11" t="s">
@@ -2834,35 +2836,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:35" ht="45" customHeight="1">
-      <c r="B2" s="26" t="str">
+    <row r="2" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="str">
         <f>"keytool -importkeystore -srckeystore "&amp;AC2&amp;" -srcstoretype pkcs12 -destkeystore "&amp;AE2&amp;" -deststoretype JKS"</f>
         <v>keytool -importkeystore -srckeystore Symantec.pem -srcstoretype pkcs12 -destkeystore Symantec.jks -deststoretype JKS</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
       <c r="AA2" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>keytool -importkeystore -srckeystore Symantec.pem -srcstoretype pkcs12 -destkeystore Symantec.jks -deststoretype JKS</v>
@@ -2886,35 +2888,35 @@
       </c>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="2:35">
-      <c r="B3" s="29" t="str">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="str">
         <f>"keytool -list -v -keystore "&amp;AC3</f>
         <v>keytool -list -v -keystore Symantec.jks</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
       <c r="AA3" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
         <v>keytool -list -v -keystore Symantec.jks</v>
@@ -2934,34 +2936,34 @@
       </c>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="2:35" ht="30" customHeight="1">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
       <c r="AA4" s="19" t="str">
         <f t="shared" ref="AA4:AA28" ca="1" si="0">IFERROR(OFFSET(A4,0,MATCH("",B4:Z4,-1)),"")</f>
         <v>keytool -importcert -file CA.der.crt -keystore Symantec.jks -storepass changeit -alias Symantec</v>
@@ -2977,32 +2979,32 @@
       </c>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="2:35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="24"/>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="27"/>
       <c r="AA5" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3016,35 +3018,35 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="2:35">
-      <c r="B6" s="29" t="str">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="str">
         <f>"SET PATH=%PATH%;C:\proyectos\JDKs\jre1.8.0_92x64\bin"</f>
         <v>SET PATH=%PATH%;C:\proyectos\JDKs\jre1.8.0_92x64\bin</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27"/>
       <c r="AA6" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SET PATH=%PATH%;C:\proyectos\JDKs\jre1.8.0_92x64\bin</v>
@@ -3060,32 +3062,32 @@
       </c>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="2:35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27"/>
       <c r="AA7" s="19" t="str">
         <f ca="1">IFERROR(OFFSET(A7,0,MATCH("",B7:Z7,-1)),"")</f>
         <v/>
@@ -3099,32 +3101,32 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="2:35" outlineLevel="1">
+    <row r="8" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3138,32 +3140,32 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="2:35" outlineLevel="1">
+    <row r="9" spans="2:35" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3177,32 +3179,32 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="2:35" outlineLevel="2">
+    <row r="10" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
       <c r="AA10" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3216,32 +3218,32 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="2:35" outlineLevel="2">
+    <row r="11" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27"/>
       <c r="AA11" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3255,32 +3257,32 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="2:35" outlineLevel="3">
+    <row r="12" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
       <c r="AA12" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3294,32 +3296,32 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="2:35" outlineLevel="3">
+    <row r="13" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
       <c r="AA13" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3333,32 +3335,32 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="2:35" outlineLevel="4">
+    <row r="14" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
       <c r="AA14" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3372,32 +3374,32 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="2:35" outlineLevel="4">
+    <row r="15" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
       <c r="AA15" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3411,32 +3413,32 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="2:35" outlineLevel="5">
+    <row r="16" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
       <c r="AA16" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3450,32 +3452,32 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="2:35" outlineLevel="5">
+    <row r="17" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
       <c r="AA17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3489,32 +3491,32 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="2:35" outlineLevel="6">
+    <row r="18" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="24"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3528,32 +3530,32 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="2:35" outlineLevel="6">
+    <row r="19" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="24"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3567,7 +3569,7 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="2:35" outlineLevel="7">
+    <row r="20" spans="2:35" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3575,24 +3577,24 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
       <c r="AA20" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3606,7 +3608,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="2:35" outlineLevel="7">
+    <row r="21" spans="2:35" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3614,24 +3616,24 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
       <c r="AA21" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3645,32 +3647,32 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="2:35" outlineLevel="6">
+    <row r="22" spans="2:35" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="24"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3684,32 +3686,32 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" spans="2:35" outlineLevel="5">
+    <row r="23" spans="2:35" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3723,32 +3725,32 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="2:35" outlineLevel="4">
+    <row r="24" spans="2:35" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
       <c r="AA24" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3762,32 +3764,32 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="2:35" outlineLevel="3">
+    <row r="25" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
       <c r="AA25" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3801,32 +3803,32 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="2:35" outlineLevel="3">
+    <row r="26" spans="2:35" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
       <c r="AA26" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3840,32 +3842,32 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="2:35" outlineLevel="2">
+    <row r="27" spans="2:35" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
       <c r="AA27" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3879,32 +3881,32 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="29"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
       <c r="AA28" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3918,20 +3920,19 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="30" spans="2:35">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B7:Z7"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="B28:Z28"/>
+    <mergeCell ref="I21:Z21"/>
+    <mergeCell ref="H22:Z22"/>
+    <mergeCell ref="G23:Z23"/>
+    <mergeCell ref="F24:Z24"/>
+    <mergeCell ref="E25:Z25"/>
+    <mergeCell ref="D26:Z26"/>
     <mergeCell ref="I20:Z20"/>
     <mergeCell ref="C9:Z9"/>
     <mergeCell ref="D10:Z10"/>
@@ -3944,14 +3945,15 @@
     <mergeCell ref="G17:Z17"/>
     <mergeCell ref="H18:Z18"/>
     <mergeCell ref="H19:Z19"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="B28:Z28"/>
-    <mergeCell ref="I21:Z21"/>
-    <mergeCell ref="H22:Z22"/>
-    <mergeCell ref="G23:Z23"/>
-    <mergeCell ref="F24:Z24"/>
-    <mergeCell ref="E25:Z25"/>
-    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B7:Z7"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="B5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3959,21 +3961,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3997,7 +3999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
